--- a/biology/Botanique/Microdracoides_squamosus/Microdracoides_squamosus.xlsx
+++ b/biology/Botanique/Microdracoides_squamosus/Microdracoides_squamosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microdracoides squamosus est une espèce d'arbustes de la famille des Cyperaceae. Il pousse en Afrique tropicale de l’ouest.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microdracoides squamosus est un arbuste nain dioïque[1], dont les feuilles caduques sont regroupées à la cime des branches[2].
-Il est caractérisé par un port arbustiforme dendroïde ramifié en candélabre et  atteint 70-80 cm de hauteur[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microdracoides squamosus est un arbuste nain dioïque, dont les feuilles caduques sont regroupées à la cime des branches.
+Il est caractérisé par un port arbustiforme dendroïde ramifié en candélabre et  atteint 70-80 cm de hauteur. 
 Le caudex est couvert d’une gaine foliaire et de racines adventives. Les chaumes sont latéraux. 
 Les feuilles caduques sont regroupées à la pointe du caudex. L’inflorescence est paniculée avec beaucoup de pointes en forme d’épis. Les bractées primaires ressemblent plus ou moins à des feuilles. Les pointes ont de nombreux épis, suspendus par de petites et denses bractées en spirale.
 </t>
@@ -545,10 +559,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce rupicole se rencontre de l’Afrique de l’ouest au Cameroun[2]. 
-Elle pousse sur des affleurements granitiques humides[4].  « L’espèce se développe sur les dalles rocheuses des versants submontagnards des inselbergs sur terreau humifère des zones suintantes. Ses racines sont petites, fasciculées, étalées à la surface du rocher, dirigées dans le sens de la pente et formant une sole qui porte la plante[3]. » 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce rupicole se rencontre de l’Afrique de l’ouest au Cameroun. 
+Elle pousse sur des affleurements granitiques humides.  « L’espèce se développe sur les dalles rocheuses des versants submontagnards des inselbergs sur terreau humifère des zones suintantes. Ses racines sont petites, fasciculées, étalées à la surface du rocher, dirigées dans le sens de la pente et formant une sole qui porte la plante. » 
 </t>
         </is>
       </c>
